--- a/hello.xlsx
+++ b/hello.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ErraniE\Documents\Progetti_pers\App_Job\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e18107a0904916b3/Documenti/Progetti_git/App_Job/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2870C4A0-91A9-4AFB-B658-8B1AD89BA91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{2870C4A0-91A9-4AFB-B658-8B1AD89BA91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA3600DD-771B-4B09-AAEA-71D113110255}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="555" windowWidth="21600" windowHeight="11385" xr2:uid="{BE1E286F-6AD6-454F-9884-243397D2D0D9}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{BE1E286F-6AD6-454F-9884-243397D2D0D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{D71041A8-8A21-4DBE-9DFF-1EF10982AA25}" name="prova" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\edoar\OneDrive\Documenti\Progetti_git\App_Job\prova.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+</connections>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -81,6 +90,77 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema1">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="data">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" nillable="true" name="models" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="model" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" name="machine" form="unqualified">
+                          <xsd:complexType>
+                            <xsd:attribute name="key" form="unqualified" type="xsd:integer"/>
+                            <xsd:attribute name="Type" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="id" form="unqualified" type="xsd:integer"/>
+                            <xsd:attribute name="Serial" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="PlcIP" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="ifixName" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="Base" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="BaseCommon" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="PLCType" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="CommType" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="OPCTagPrefix" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="ConfigSuffix" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="UseDRTags" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="Synoptic" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="Faceplate" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="Historian" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="Trend" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="Samples" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="ShelfViewer" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="WarningButton" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="Pack" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="VectorInit" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="RDLtoCopy" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="SubFolderToCopy" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="AddressIndexZero" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="MachineGroupHidesIma" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="SecurityPrefix" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="Dependency" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="MachineDescription" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="WebServerUrls" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="SingleCardinalityDependencies" form="unqualified" type="xsd:string"/>
+                            <xsd:attribute name="NestViewer" form="unqualified" type="xsd:string"/>
+                          </xsd:complexType>
+                        </xsd:element>
+                      </xsd:sequence>
+                      <xsd:attribute name="name" form="unqualified" type="xsd:string"/>
+                    </xsd:complexType>
+                  </xsd:element>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="1" Name="data_mapping" RootElement="data" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  </Map>
+</MapInfo>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,7 +452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -380,12 +460,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC8ABD3-E9F3-4362-BD25-C8770E9B3863}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>